--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nodal-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nodal-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Nodal</t>
+  </si>
+  <si>
+    <t>Acvr2a</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Nodal</t>
-  </si>
-  <si>
-    <t>Acvr2a</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.019961</v>
+        <v>0.7497739999999999</v>
       </c>
       <c r="H2">
-        <v>2.039922</v>
+        <v>1.499548</v>
       </c>
       <c r="I2">
-        <v>0.3840722173751125</v>
+        <v>0.4969779054352629</v>
       </c>
       <c r="J2">
-        <v>0.3057640068128025</v>
+        <v>0.4076138027016631</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N2">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O2">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P2">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q2">
-        <v>10.8926525902995</v>
+        <v>11.109919451834</v>
       </c>
       <c r="R2">
-        <v>43.570610361198</v>
+        <v>44.439677807336</v>
       </c>
       <c r="S2">
-        <v>0.05326380627983839</v>
+        <v>0.110835938238091</v>
       </c>
       <c r="T2">
-        <v>0.03218796739928489</v>
+        <v>0.06877645132504265</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.019961</v>
+        <v>0.7497739999999999</v>
       </c>
       <c r="H3">
-        <v>2.039922</v>
+        <v>1.499548</v>
       </c>
       <c r="I3">
-        <v>0.3840722173751125</v>
+        <v>0.4969779054352629</v>
       </c>
       <c r="J3">
-        <v>0.3057640068128025</v>
+        <v>0.4076138027016631</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>78.962081</v>
       </c>
       <c r="O3">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P3">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q3">
-        <v>26.846081032947</v>
+        <v>19.73457177323133</v>
       </c>
       <c r="R3">
-        <v>161.076486197682</v>
+        <v>118.407430639388</v>
       </c>
       <c r="S3">
-        <v>0.1312742188055422</v>
+        <v>0.1968780950839359</v>
       </c>
       <c r="T3">
-        <v>0.1189959159061869</v>
+        <v>0.1832516186368232</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.019961</v>
+        <v>0.7497739999999999</v>
       </c>
       <c r="H4">
-        <v>2.039922</v>
+        <v>1.499548</v>
       </c>
       <c r="I4">
-        <v>0.3840722173751125</v>
+        <v>0.4969779054352629</v>
       </c>
       <c r="J4">
-        <v>0.3057640068128025</v>
+        <v>0.4076138027016631</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N4">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O4">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P4">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q4">
-        <v>6.046002420480001</v>
+        <v>6.337972331997999</v>
       </c>
       <c r="R4">
-        <v>36.27601452288</v>
+        <v>38.02783399198799</v>
       </c>
       <c r="S4">
-        <v>0.02956424975663585</v>
+        <v>0.06322954122120994</v>
       </c>
       <c r="T4">
-        <v>0.0267990547563755</v>
+        <v>0.05885325012673735</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.019961</v>
+        <v>0.7497739999999999</v>
       </c>
       <c r="H5">
-        <v>2.039922</v>
+        <v>1.499548</v>
       </c>
       <c r="I5">
-        <v>0.3840722173751125</v>
+        <v>0.4969779054352629</v>
       </c>
       <c r="J5">
-        <v>0.3057640068128025</v>
+        <v>0.4076138027016631</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N5">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O5">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P5">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q5">
-        <v>17.794346701905</v>
+        <v>6.648418131133</v>
       </c>
       <c r="R5">
-        <v>71.17738680762001</v>
+        <v>26.593672524532</v>
       </c>
       <c r="S5">
-        <v>0.08701228904065222</v>
+        <v>0.06632664301104529</v>
       </c>
       <c r="T5">
-        <v>0.05258258691207761</v>
+        <v>0.04115732863471996</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.019961</v>
+        <v>0.7497739999999999</v>
       </c>
       <c r="H6">
-        <v>2.039922</v>
+        <v>1.499548</v>
       </c>
       <c r="I6">
-        <v>0.3840722173751125</v>
+        <v>0.4969779054352629</v>
       </c>
       <c r="J6">
-        <v>0.3057640068128025</v>
+        <v>0.4076138027016631</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N6">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O6">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P6">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q6">
-        <v>10.772529913401</v>
+        <v>2.830825970652666</v>
       </c>
       <c r="R6">
-        <v>64.63517948040599</v>
+        <v>16.984955823916</v>
       </c>
       <c r="S6">
-        <v>0.05267642033880184</v>
+        <v>0.02824118156808497</v>
       </c>
       <c r="T6">
-        <v>0.04774950437267714</v>
+        <v>0.02628653143134895</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.019961</v>
+        <v>0.7497739999999999</v>
       </c>
       <c r="H7">
-        <v>2.039922</v>
+        <v>1.499548</v>
       </c>
       <c r="I7">
-        <v>0.3840722173751125</v>
+        <v>0.4969779054352629</v>
       </c>
       <c r="J7">
-        <v>0.3057640068128025</v>
+        <v>0.4076138027016631</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N7">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O7">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P7">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q7">
-        <v>6.192628273983001</v>
+        <v>3.154124520658</v>
       </c>
       <c r="R7">
-        <v>37.155769643898</v>
+        <v>18.924747123948</v>
       </c>
       <c r="S7">
-        <v>0.03028123315364191</v>
+        <v>0.03146650631289582</v>
       </c>
       <c r="T7">
-        <v>0.02744897746620055</v>
+        <v>0.02928862254699086</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>1.289202</v>
       </c>
       <c r="I8">
-        <v>0.1618188247016078</v>
+        <v>0.2848435704816616</v>
       </c>
       <c r="J8">
-        <v>0.1932385498617489</v>
+        <v>0.3504366180146214</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N8">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O8">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P8">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q8">
-        <v>4.589335443453001</v>
+        <v>6.367665624194001</v>
       </c>
       <c r="R8">
-        <v>27.536012660718</v>
+        <v>38.20599374516401</v>
       </c>
       <c r="S8">
-        <v>0.02244131739141014</v>
+        <v>0.0635257705426006</v>
       </c>
       <c r="T8">
-        <v>0.02034234247539508</v>
+        <v>0.05912897659904694</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>1.289202</v>
       </c>
       <c r="I9">
-        <v>0.1618188247016078</v>
+        <v>0.2848435704816616</v>
       </c>
       <c r="J9">
-        <v>0.1932385498617489</v>
+        <v>0.3504366180146214</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>78.962081</v>
       </c>
       <c r="O9">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P9">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q9">
         <v>11.31089697215134</v>
@@ -1013,10 +1013,10 @@
         <v>101.798072749362</v>
       </c>
       <c r="S9">
-        <v>0.05530897273933111</v>
+        <v>0.1128409511570155</v>
       </c>
       <c r="T9">
-        <v>0.07520374444615427</v>
+        <v>0.1575463761412304</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>1.289202</v>
       </c>
       <c r="I10">
-        <v>0.1618188247016078</v>
+        <v>0.2848435704816616</v>
       </c>
       <c r="J10">
-        <v>0.1932385498617489</v>
+        <v>0.3504366180146214</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N10">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O10">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P10">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q10">
-        <v>2.54732563712</v>
+        <v>3.632617564918</v>
       </c>
       <c r="R10">
-        <v>22.92593073408</v>
+        <v>32.693558084262</v>
       </c>
       <c r="S10">
-        <v>0.01245612656260205</v>
+        <v>0.03624009857257712</v>
       </c>
       <c r="T10">
-        <v>0.01693662551314648</v>
+        <v>0.05059773196315828</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>1.289202</v>
       </c>
       <c r="I11">
-        <v>0.1618188247016078</v>
+        <v>0.2848435704816616</v>
       </c>
       <c r="J11">
-        <v>0.1932385498617489</v>
+        <v>0.3504366180146214</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N11">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O11">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P11">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q11">
-        <v>7.497184486070001</v>
+        <v>3.810550001953001</v>
       </c>
       <c r="R11">
-        <v>44.98310691642001</v>
+        <v>22.863300011718</v>
       </c>
       <c r="S11">
-        <v>0.0366603615418586</v>
+        <v>0.0380152067259048</v>
       </c>
       <c r="T11">
-        <v>0.03323145503221411</v>
+        <v>0.03538406932658258</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>1.289202</v>
       </c>
       <c r="I12">
-        <v>0.1618188247016078</v>
+        <v>0.2848435704816616</v>
       </c>
       <c r="J12">
-        <v>0.1932385498617489</v>
+        <v>0.3504366180146214</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N12">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O12">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P12">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q12">
-        <v>4.538724882427333</v>
+        <v>1.622491801092667</v>
       </c>
       <c r="R12">
-        <v>40.848523941846</v>
+        <v>14.602426209834</v>
       </c>
       <c r="S12">
-        <v>0.02219383762504122</v>
+        <v>0.01618647208356042</v>
       </c>
       <c r="T12">
-        <v>0.0301770148742276</v>
+        <v>0.02259924250131236</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>1.289202</v>
       </c>
       <c r="I13">
-        <v>0.1618188247016078</v>
+        <v>0.2848435704816616</v>
       </c>
       <c r="J13">
-        <v>0.1932385498617489</v>
+        <v>0.3504366180146214</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N13">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O13">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P13">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q13">
-        <v>2.609102621268667</v>
+        <v>1.807790809978</v>
       </c>
       <c r="R13">
-        <v>23.481923591418</v>
+        <v>16.27011728980201</v>
       </c>
       <c r="S13">
-        <v>0.01275820884136467</v>
+        <v>0.01803507140000317</v>
       </c>
       <c r="T13">
-        <v>0.01734736752061141</v>
+        <v>0.02518022148329078</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,19 +1284,19 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.08729066666666667</v>
+        <v>0.097381</v>
       </c>
       <c r="H14">
-        <v>0.261872</v>
+        <v>0.194762</v>
       </c>
       <c r="I14">
-        <v>0.0328698057110208</v>
+        <v>0.06454772425983209</v>
       </c>
       <c r="J14">
-        <v>0.03925200669049219</v>
+        <v>0.05294107253771223</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N14">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O14">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P14">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q14">
-        <v>0.932218885208</v>
+        <v>1.442961567271</v>
       </c>
       <c r="R14">
-        <v>5.593313311247999</v>
+        <v>5.771846269084</v>
       </c>
       <c r="S14">
-        <v>0.004558442096679462</v>
+        <v>0.01439542382313009</v>
       </c>
       <c r="T14">
-        <v>0.004132083186899073</v>
+        <v>0.008932717867629416</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,19 +1346,19 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>0.08729066666666667</v>
+        <v>0.097381</v>
       </c>
       <c r="H15">
-        <v>0.261872</v>
+        <v>0.194762</v>
       </c>
       <c r="I15">
-        <v>0.0328698057110208</v>
+        <v>0.06454772425983209</v>
       </c>
       <c r="J15">
-        <v>0.03925200669049219</v>
+        <v>0.05294107253771223</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>78.962081</v>
       </c>
       <c r="O15">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P15">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q15">
-        <v>2.297550897292445</v>
+        <v>2.563135469953667</v>
       </c>
       <c r="R15">
-        <v>20.677958075632</v>
+        <v>15.378812819722</v>
       </c>
       <c r="S15">
-        <v>0.01123475708941975</v>
+        <v>0.02557061964987951</v>
       </c>
       <c r="T15">
-        <v>0.01527592647669125</v>
+        <v>0.02380080647564797</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>0.08729066666666667</v>
+        <v>0.097381</v>
       </c>
       <c r="H16">
-        <v>0.261872</v>
+        <v>0.194762</v>
       </c>
       <c r="I16">
-        <v>0.0328698057110208</v>
+        <v>0.06454772425983209</v>
       </c>
       <c r="J16">
-        <v>0.03925200669049219</v>
+        <v>0.05294107253771223</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N16">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O16">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P16">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q16">
-        <v>0.5174311389866666</v>
+        <v>0.8231788294369998</v>
       </c>
       <c r="R16">
-        <v>4.65688025088</v>
+        <v>4.939072976621999</v>
       </c>
       <c r="S16">
-        <v>0.002530178184025253</v>
+        <v>0.008212282572698768</v>
       </c>
       <c r="T16">
-        <v>0.003440289416537281</v>
+        <v>0.007643887825653878</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.08729066666666667</v>
+        <v>0.097381</v>
       </c>
       <c r="H17">
-        <v>0.261872</v>
+        <v>0.194762</v>
       </c>
       <c r="I17">
-        <v>0.0328698057110208</v>
+        <v>0.06454772425983209</v>
       </c>
       <c r="J17">
-        <v>0.03925200669049219</v>
+        <v>0.05294107253771223</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N17">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O17">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P17">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q17">
-        <v>1.522882136186667</v>
+        <v>0.8634996759395001</v>
       </c>
       <c r="R17">
-        <v>9.137292817119999</v>
+        <v>3.453998703758</v>
       </c>
       <c r="S17">
-        <v>0.007446716804418234</v>
+        <v>0.008614535610808861</v>
       </c>
       <c r="T17">
-        <v>0.006750212606089638</v>
+        <v>0.005345533213711952</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.08729066666666667</v>
+        <v>0.097381</v>
       </c>
       <c r="H18">
-        <v>0.261872</v>
+        <v>0.194762</v>
       </c>
       <c r="I18">
-        <v>0.0328698057110208</v>
+        <v>0.06454772425983209</v>
       </c>
       <c r="J18">
-        <v>0.03925200669049219</v>
+        <v>0.05294107253771223</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N18">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O18">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P18">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q18">
-        <v>0.9219385033617776</v>
+        <v>0.3676690093923333</v>
       </c>
       <c r="R18">
-        <v>8.297446530256</v>
+        <v>2.206014056354</v>
       </c>
       <c r="S18">
-        <v>0.004508172223239489</v>
+        <v>0.003667977953732302</v>
       </c>
       <c r="T18">
-        <v>0.006129772711447647</v>
+        <v>0.003414107074019895</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.08729066666666667</v>
+        <v>0.097381</v>
       </c>
       <c r="H19">
-        <v>0.261872</v>
+        <v>0.194762</v>
       </c>
       <c r="I19">
-        <v>0.0328698057110208</v>
+        <v>0.06454772425983209</v>
       </c>
       <c r="J19">
-        <v>0.03925200669049219</v>
+        <v>0.05294107253771223</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N19">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O19">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P19">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q19">
-        <v>0.529979725160889</v>
+        <v>0.409659177227</v>
       </c>
       <c r="R19">
-        <v>4.769817526448</v>
+        <v>2.457955063362</v>
       </c>
       <c r="S19">
-        <v>0.002591539313238615</v>
+        <v>0.004086884649582552</v>
       </c>
       <c r="T19">
-        <v>0.003523722292827308</v>
+        <v>0.003804020081049112</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.275429</v>
+        <v>0.1429326666666667</v>
       </c>
       <c r="H20">
-        <v>0.5508580000000001</v>
+        <v>0.428798</v>
       </c>
       <c r="I20">
-        <v>0.1037143839415525</v>
+        <v>0.0947410517012815</v>
       </c>
       <c r="J20">
-        <v>0.08256813214666382</v>
+        <v>0.1165577783244469</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N20">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O20">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P20">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q20">
-        <v>2.9414383592055</v>
+        <v>2.117932088472667</v>
       </c>
       <c r="R20">
-        <v>11.765753436822</v>
+        <v>12.707592530836</v>
       </c>
       <c r="S20">
-        <v>0.0143832920080764</v>
+        <v>0.02112913519923646</v>
       </c>
       <c r="T20">
-        <v>0.008691998687025913</v>
+        <v>0.01966672942465039</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.275429</v>
+        <v>0.1429326666666667</v>
       </c>
       <c r="H21">
-        <v>0.5508580000000001</v>
+        <v>0.428798</v>
       </c>
       <c r="I21">
-        <v>0.1037143839415525</v>
+        <v>0.0947410517012815</v>
       </c>
       <c r="J21">
-        <v>0.08256813214666382</v>
+        <v>0.1165577783244469</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>78.962081</v>
       </c>
       <c r="O21">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P21">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q21">
-        <v>7.249482335916334</v>
+        <v>3.762086934293111</v>
       </c>
       <c r="R21">
-        <v>43.49689401549801</v>
+        <v>33.858782408638</v>
       </c>
       <c r="S21">
-        <v>0.03544912679150644</v>
+        <v>0.03753172441108989</v>
       </c>
       <c r="T21">
-        <v>0.03213350914606062</v>
+        <v>0.05240107523615951</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.275429</v>
+        <v>0.1429326666666667</v>
       </c>
       <c r="H22">
-        <v>0.5508580000000001</v>
+        <v>0.428798</v>
       </c>
       <c r="I22">
-        <v>0.1037143839415525</v>
+        <v>0.0947410517012815</v>
       </c>
       <c r="J22">
-        <v>0.08256813214666382</v>
+        <v>0.1165577783244469</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N22">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O22">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P22">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q22">
-        <v>1.63265497472</v>
+        <v>1.208235130415333</v>
       </c>
       <c r="R22">
-        <v>9.795929848320002</v>
+        <v>10.874116173738</v>
       </c>
       <c r="S22">
-        <v>0.007983493237702671</v>
+        <v>0.0120537214398705</v>
       </c>
       <c r="T22">
-        <v>0.007236783418673602</v>
+        <v>0.01682917515667703</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.275429</v>
+        <v>0.1429326666666667</v>
       </c>
       <c r="H23">
-        <v>0.5508580000000001</v>
+        <v>0.428798</v>
       </c>
       <c r="I23">
-        <v>0.1037143839415525</v>
+        <v>0.0947410517012815</v>
       </c>
       <c r="J23">
-        <v>0.08256813214666382</v>
+        <v>0.1165577783244469</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N23">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O23">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P23">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q23">
-        <v>4.805163254045</v>
+        <v>1.267416758380334</v>
       </c>
       <c r="R23">
-        <v>19.22065301618</v>
+        <v>7.604500550282001</v>
       </c>
       <c r="S23">
-        <v>0.02349669032264744</v>
+        <v>0.01264413537494863</v>
       </c>
       <c r="T23">
-        <v>0.0141993363771817</v>
+        <v>0.01176899986123195</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.275429</v>
+        <v>0.1429326666666667</v>
       </c>
       <c r="H24">
-        <v>0.5508580000000001</v>
+        <v>0.428798</v>
       </c>
       <c r="I24">
-        <v>0.1037143839415525</v>
+        <v>0.0947410517012815</v>
       </c>
       <c r="J24">
-        <v>0.08256813214666382</v>
+        <v>0.1165577783244469</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N24">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O24">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P24">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q24">
-        <v>2.909000580922333</v>
+        <v>0.5396526217962222</v>
       </c>
       <c r="R24">
-        <v>17.454003485534</v>
+        <v>4.856873596165999</v>
       </c>
       <c r="S24">
-        <v>0.01422467503904155</v>
+        <v>0.005383738821756823</v>
       </c>
       <c r="T24">
-        <v>0.01289421677874163</v>
+        <v>0.007516673093958693</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.275429</v>
+        <v>0.1429326666666667</v>
       </c>
       <c r="H25">
-        <v>0.5508580000000001</v>
+        <v>0.428798</v>
       </c>
       <c r="I25">
-        <v>0.1037143839415525</v>
+        <v>0.0947410517012815</v>
       </c>
       <c r="J25">
-        <v>0.08256813214666382</v>
+        <v>0.1165577783244469</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N25">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O25">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P25">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q25">
-        <v>1.672249637853667</v>
+        <v>0.6012844253553334</v>
       </c>
       <c r="R25">
-        <v>10.033497827122</v>
+        <v>5.411559828198</v>
       </c>
       <c r="S25">
-        <v>0.008177106542578036</v>
+        <v>0.005998596454379188</v>
       </c>
       <c r="T25">
-        <v>0.007412287738980363</v>
+        <v>0.008375125551769325</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.6004996666666667</v>
+        <v>0.08884500000000001</v>
       </c>
       <c r="H26">
-        <v>1.801499</v>
+        <v>0.266535</v>
       </c>
       <c r="I26">
-        <v>0.2261216247578903</v>
+        <v>0.058889748121962</v>
       </c>
       <c r="J26">
-        <v>0.270026771861501</v>
+        <v>0.07245072842155623</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N26">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O26">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P26">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q26">
-        <v>6.413023879923499</v>
+        <v>1.316477756895</v>
       </c>
       <c r="R26">
-        <v>38.47814327954099</v>
+        <v>7.89886654137</v>
       </c>
       <c r="S26">
-        <v>0.03135894207370758</v>
+        <v>0.01313358282997703</v>
       </c>
       <c r="T26">
-        <v>0.02842588642205159</v>
+        <v>0.01222457130676727</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.6004996666666667</v>
+        <v>0.08884500000000001</v>
       </c>
       <c r="H27">
-        <v>1.801499</v>
+        <v>0.266535</v>
       </c>
       <c r="I27">
-        <v>0.2261216247578903</v>
+        <v>0.058889748121962</v>
       </c>
       <c r="J27">
-        <v>0.270026771861501</v>
+        <v>0.07245072842155623</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>78.962081</v>
       </c>
       <c r="O27">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P27">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q27">
-        <v>15.80556777326878</v>
+        <v>2.338462028815</v>
       </c>
       <c r="R27">
-        <v>142.250109959419</v>
+        <v>21.046158259335</v>
       </c>
       <c r="S27">
-        <v>0.07728739102245594</v>
+        <v>0.02332920901195865</v>
       </c>
       <c r="T27">
-        <v>0.1050878531184426</v>
+        <v>0.03257179508316218</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.6004996666666667</v>
+        <v>0.08884500000000001</v>
       </c>
       <c r="H28">
-        <v>1.801499</v>
+        <v>0.266535</v>
       </c>
       <c r="I28">
-        <v>0.2261216247578903</v>
+        <v>0.058889748121962</v>
       </c>
       <c r="J28">
-        <v>0.270026771861501</v>
+        <v>0.07245072842155623</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N28">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O28">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P28">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q28">
-        <v>3.559569864106666</v>
+        <v>0.7510225105649999</v>
       </c>
       <c r="R28">
-        <v>32.03612877696</v>
+        <v>6.759202595085</v>
       </c>
       <c r="S28">
-        <v>0.01740588328780209</v>
+        <v>0.007492429171721608</v>
       </c>
       <c r="T28">
-        <v>0.02366682174345671</v>
+        <v>0.01046078619859447</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.6004996666666667</v>
+        <v>0.08884500000000001</v>
       </c>
       <c r="H29">
-        <v>1.801499</v>
+        <v>0.266535</v>
       </c>
       <c r="I29">
-        <v>0.2261216247578903</v>
+        <v>0.058889748121962</v>
       </c>
       <c r="J29">
-        <v>0.270026771861501</v>
+        <v>0.07245072842155623</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N29">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O29">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P29">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q29">
-        <v>10.47638023713167</v>
+        <v>0.7878090049275002</v>
       </c>
       <c r="R29">
-        <v>62.85828142278999</v>
+        <v>4.726854029565001</v>
       </c>
       <c r="S29">
-        <v>0.05122828281161271</v>
+        <v>0.007859422437049457</v>
       </c>
       <c r="T29">
-        <v>0.04643681363283542</v>
+        <v>0.007315450114071099</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.6004996666666667</v>
+        <v>0.08884500000000001</v>
       </c>
       <c r="H30">
-        <v>1.801499</v>
+        <v>0.266535</v>
       </c>
       <c r="I30">
-        <v>0.2261216247578903</v>
+        <v>0.058889748121962</v>
       </c>
       <c r="J30">
-        <v>0.270026771861501</v>
+        <v>0.07245072842155623</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N30">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O30">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P30">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q30">
-        <v>6.34230193326411</v>
+        <v>0.335440723955</v>
       </c>
       <c r="R30">
-        <v>57.08071739937699</v>
+        <v>3.018966515595</v>
       </c>
       <c r="S30">
-        <v>0.03101311996698278</v>
+        <v>0.003346458768130809</v>
       </c>
       <c r="T30">
-        <v>0.04216861447539341</v>
+        <v>0.004672261678222101</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.6004996666666667</v>
+        <v>0.08884500000000001</v>
       </c>
       <c r="H31">
-        <v>1.801499</v>
+        <v>0.266535</v>
       </c>
       <c r="I31">
-        <v>0.2261216247578903</v>
+        <v>0.058889748121962</v>
       </c>
       <c r="J31">
-        <v>0.270026771861501</v>
+        <v>0.07245072842155623</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N31">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O31">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P31">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q31">
-        <v>3.645895494354556</v>
+        <v>0.373750214115</v>
       </c>
       <c r="R31">
-        <v>32.813059449191</v>
+        <v>3.363751927035</v>
       </c>
       <c r="S31">
-        <v>0.01782800559532921</v>
+        <v>0.003728645903124447</v>
       </c>
       <c r="T31">
-        <v>0.02424078246932128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G32">
-        <v>0.2427346666666667</v>
-      </c>
-      <c r="H32">
-        <v>0.728204</v>
-      </c>
-      <c r="I32">
-        <v>0.09140314351281614</v>
-      </c>
-      <c r="J32">
-        <v>0.1091505326267916</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>10.6794795</v>
-      </c>
-      <c r="N32">
-        <v>21.358959</v>
-      </c>
-      <c r="O32">
-        <v>0.1386817475209803</v>
-      </c>
-      <c r="P32">
-        <v>0.1052706227093344</v>
-      </c>
-      <c r="Q32">
-        <v>2.592279896606</v>
-      </c>
-      <c r="R32">
-        <v>15.553679379636</v>
-      </c>
-      <c r="S32">
-        <v>0.01267594767126829</v>
-      </c>
-      <c r="T32">
-        <v>0.01149034453867787</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G33">
-        <v>0.2427346666666667</v>
-      </c>
-      <c r="H33">
-        <v>0.728204</v>
-      </c>
-      <c r="I33">
-        <v>0.09140314351281614</v>
-      </c>
-      <c r="J33">
-        <v>0.1091505326267916</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>26.32069366666667</v>
-      </c>
-      <c r="N33">
-        <v>78.962081</v>
-      </c>
-      <c r="O33">
-        <v>0.3417956646349414</v>
-      </c>
-      <c r="P33">
-        <v>0.3891756820777129</v>
-      </c>
-      <c r="Q33">
-        <v>6.388944803613778</v>
-      </c>
-      <c r="R33">
-        <v>57.500503232524</v>
-      </c>
-      <c r="S33">
-        <v>0.03124119818668592</v>
-      </c>
-      <c r="T33">
-        <v>0.04247873298417728</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G34">
-        <v>0.2427346666666667</v>
-      </c>
-      <c r="H34">
-        <v>0.728204</v>
-      </c>
-      <c r="I34">
-        <v>0.09140314351281614</v>
-      </c>
-      <c r="J34">
-        <v>0.1091505326267916</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>5.92768</v>
-      </c>
-      <c r="N34">
-        <v>17.78304</v>
-      </c>
-      <c r="O34">
-        <v>0.07697575721224656</v>
-      </c>
-      <c r="P34">
-        <v>0.08764620478296729</v>
-      </c>
-      <c r="Q34">
-        <v>1.438853428906667</v>
-      </c>
-      <c r="R34">
-        <v>12.94968086016</v>
-      </c>
-      <c r="S34">
-        <v>0.007035826183478665</v>
-      </c>
-      <c r="T34">
-        <v>0.009566629934777731</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G35">
-        <v>0.2427346666666667</v>
-      </c>
-      <c r="H35">
-        <v>0.728204</v>
-      </c>
-      <c r="I35">
-        <v>0.09140314351281614</v>
-      </c>
-      <c r="J35">
-        <v>0.1091505326267916</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>17.446105</v>
-      </c>
-      <c r="N35">
-        <v>34.89221</v>
-      </c>
-      <c r="O35">
-        <v>0.2265518959828062</v>
-      </c>
-      <c r="P35">
-        <v>0.1719711468337415</v>
-      </c>
-      <c r="Q35">
-        <v>4.234774481806666</v>
-      </c>
-      <c r="R35">
-        <v>25.40864689084</v>
-      </c>
-      <c r="S35">
-        <v>0.02070755546161703</v>
-      </c>
-      <c r="T35">
-        <v>0.01877074227334308</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G36">
-        <v>0.2427346666666667</v>
-      </c>
-      <c r="H36">
-        <v>0.728204</v>
-      </c>
-      <c r="I36">
-        <v>0.09140314351281614</v>
-      </c>
-      <c r="J36">
-        <v>0.1091505326267916</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>10.56170766666667</v>
-      </c>
-      <c r="N36">
-        <v>31.685123</v>
-      </c>
-      <c r="O36">
-        <v>0.1371523842542203</v>
-      </c>
-      <c r="P36">
-        <v>0.1561645691080663</v>
-      </c>
-      <c r="Q36">
-        <v>2.563692589899111</v>
-      </c>
-      <c r="R36">
-        <v>23.073233309092</v>
-      </c>
-      <c r="S36">
-        <v>0.0125361590611134</v>
-      </c>
-      <c r="T36">
-        <v>0.01704544589557884</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G37">
-        <v>0.2427346666666667</v>
-      </c>
-      <c r="H37">
-        <v>0.728204</v>
-      </c>
-      <c r="I37">
-        <v>0.09140314351281614</v>
-      </c>
-      <c r="J37">
-        <v>0.1091505326267916</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>6.071436333333334</v>
-      </c>
-      <c r="N37">
-        <v>18.214309</v>
-      </c>
-      <c r="O37">
-        <v>0.07884255039480526</v>
-      </c>
-      <c r="P37">
-        <v>0.08977177448817773</v>
-      </c>
-      <c r="Q37">
-        <v>1.473748074559555</v>
-      </c>
-      <c r="R37">
-        <v>13.263732671036</v>
-      </c>
-      <c r="S37">
-        <v>0.007206456948652824</v>
-      </c>
-      <c r="T37">
-        <v>0.009798637000236823</v>
+        <v>0.005205864040739083</v>
       </c>
     </row>
   </sheetData>
